--- a/data/trans_dic/P29_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P29_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6148556913329956</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.501076529889421</v>
+        <v>0.5010765298894209</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3987630869878315</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.5244736854939824</v>
+        <v>0.5229443355993106</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5732976614696192</v>
+        <v>0.5673305682627039</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.565635506479681</v>
+        <v>0.566590214882894</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4180028739821786</v>
+        <v>0.4209998277202629</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3510757139532866</v>
+        <v>0.3542825165179845</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3811241083011655</v>
+        <v>0.3834679233853021</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3861089877733524</v>
+        <v>0.391065494421016</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.363965005516466</v>
+        <v>0.3772946556794999</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4549709786230191</v>
+        <v>0.4518802735201029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.4933015832437445</v>
+        <v>0.4930929665787678</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4945761375336094</v>
+        <v>0.4934853712639284</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4212363362316036</v>
+        <v>0.4129210405930596</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6116023578286895</v>
+        <v>0.6133785357833927</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6644923491119603</v>
+        <v>0.6618143611723484</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.662913815940108</v>
+        <v>0.6624920712181579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5760077427213113</v>
+        <v>0.5778573743120917</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4398698378933417</v>
+        <v>0.4457323779384934</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4748076560165153</v>
+        <v>0.4735373227019808</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4885174207577501</v>
+        <v>0.490165832732798</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5073257052436287</v>
+        <v>0.5230370860867375</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5164350342665652</v>
+        <v>0.5164283663390784</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5594286894273469</v>
+        <v>0.5587007342578476</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5612780351719125</v>
+        <v>0.5629234048481649</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.5228832406083955</v>
+        <v>0.5209896353073309</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.6208121408332564</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6218328491915275</v>
+        <v>0.6218328491915276</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3489663055677983</v>
@@ -821,7 +821,7 @@
         <v>0.4041478955466723</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4378418084183296</v>
+        <v>0.4378418084183297</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5291449175782221</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.6463154662585731</v>
+        <v>0.6448895177345887</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6422539164307084</v>
+        <v>0.6409558224695568</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5795919307602767</v>
+        <v>0.5810794857105912</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.5644207130074199</v>
+        <v>0.5624481229324931</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3085031026663476</v>
+        <v>0.3103863259525483</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3130537456031666</v>
+        <v>0.3111667943166391</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3648084428474037</v>
+        <v>0.3639660281074177</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3911685876356106</v>
+        <v>0.3901236936736026</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5011696456788114</v>
+        <v>0.5016304679099257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4982063411811113</v>
+        <v>0.4951623008104566</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4863459142170353</v>
+        <v>0.4844821992922675</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4914261032284096</v>
+        <v>0.4895640221160687</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7158823544863686</v>
+        <v>0.7156621773849988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7155750797231314</v>
+        <v>0.7137271964222132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6609273103703751</v>
+        <v>0.6588629505720704</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6757043959001049</v>
+        <v>0.6791096820883796</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3890068029813049</v>
+        <v>0.3893058612354319</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3889043412221812</v>
+        <v>0.3902628177036642</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4439147511320785</v>
+        <v>0.4459983089932362</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4879770223077037</v>
+        <v>0.4835905914731691</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5544374029892607</v>
+        <v>0.5566329469008052</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5545302584092775</v>
+        <v>0.556178549186599</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5436121404143456</v>
+        <v>0.5459148381474286</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5672745227754279</v>
+        <v>0.5648822754542305</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6460083693359052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6131864393836415</v>
+        <v>0.6131864393836413</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.3251507108599155</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5884666346952432</v>
+        <v>0.5864830331941028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5940053439580238</v>
+        <v>0.5919307535602695</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6081465814618207</v>
+        <v>0.6098249778495289</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5721455868708166</v>
+        <v>0.5718563045071967</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2904387173403193</v>
+        <v>0.2882209678092862</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3101009232801408</v>
+        <v>0.3105161726758526</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3440330269276295</v>
+        <v>0.3453808705220844</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3699257991234494</v>
+        <v>0.3623192310598916</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4460417995429601</v>
+        <v>0.4446969208138322</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4577088853948376</v>
+        <v>0.4595214675403485</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.4884601563957284</v>
+        <v>0.4862004630296346</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.4802494305071038</v>
+        <v>0.4787646629955926</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6711478260239044</v>
+        <v>0.6653180871324614</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.667240988455955</v>
+        <v>0.6683049092850842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.681874835203099</v>
+        <v>0.6821329807154511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.6575233225683236</v>
+        <v>0.6518973595247769</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3618339604274625</v>
+        <v>0.363804422708516</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3823727670651288</v>
+        <v>0.3837280868794746</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4179877501198877</v>
+        <v>0.4202763148910394</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.436077486880376</v>
+        <v>0.4311129949609065</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5029900412036795</v>
+        <v>0.5007200371199689</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.5133383981181106</v>
+        <v>0.5112268713596951</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.5411554571501502</v>
+        <v>0.5408261170205166</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5332570564210948</v>
+        <v>0.5348112261909493</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.6046950915071581</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.5925468143240114</v>
+        <v>0.5925468143240116</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2815957129918329</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5616274775908012</v>
+        <v>0.5570817402628984</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6007027979828008</v>
+        <v>0.597249679685289</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5625552114162122</v>
+        <v>0.5641399706748872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5564143196082881</v>
+        <v>0.5547300845785688</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2412321103705224</v>
+        <v>0.2431352792764985</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3139090821259884</v>
+        <v>0.3122577364417391</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3735689177941649</v>
+        <v>0.3748732171063754</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3796871569735978</v>
+        <v>0.3777140027781368</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.412187970025715</v>
+        <v>0.4123952284303035</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4686654447976641</v>
+        <v>0.4680467782537117</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4773397775852448</v>
+        <v>0.4794676240485772</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.471967728160716</v>
+        <v>0.4729129745234781</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6443946782396143</v>
+        <v>0.6471038034845709</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6819161266042413</v>
+        <v>0.6817746174830194</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6415170466492944</v>
+        <v>0.6430799715138759</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6291681072795816</v>
+        <v>0.6350921095491087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3193485820831838</v>
+        <v>0.3269925424596038</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3956571142809631</v>
+        <v>0.395889167388434</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4494399404936129</v>
+        <v>0.451270018162884</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4372231406149882</v>
+        <v>0.4380096591662781</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4739715998473753</v>
+        <v>0.4763502681359961</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5283753202541187</v>
+        <v>0.528536467344692</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5345267690270885</v>
+        <v>0.535184344258154</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5199728060007968</v>
+        <v>0.5227746502084802</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.6011906533552712</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.5681055897236541</v>
+        <v>0.568105589723654</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1867286793782127</v>
@@ -1241,7 +1241,7 @@
         <v>0.430904364293465</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4583753984191791</v>
+        <v>0.458375398419179</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4129659739265098</v>
+        <v>0.4107888474949696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4922566653338982</v>
+        <v>0.4871947746066816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5535350017290392</v>
+        <v>0.553922212616339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5265431046570054</v>
+        <v>0.5279539002373892</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1534009830320259</v>
+        <v>0.150644925664973</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2125369742902561</v>
+        <v>0.2102834421273581</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2246453180716903</v>
+        <v>0.2269996609135345</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3180770760649648</v>
+        <v>0.3199609072217129</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2918553304744536</v>
+        <v>0.2921344834930139</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3594281848703597</v>
+        <v>0.356556575522072</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3991831898330518</v>
+        <v>0.3968916948815719</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4331749720278448</v>
+        <v>0.431640241140706</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5182812715986367</v>
+        <v>0.511403524931195</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5889571277289217</v>
+        <v>0.5859161985680176</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6484046253428042</v>
+        <v>0.649552714051261</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6042696222336488</v>
+        <v>0.6018237685809991</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2281820943058938</v>
+        <v>0.2288521665874538</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2991753572979275</v>
+        <v>0.2972874958098972</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3091176128329138</v>
+        <v>0.3112650536644184</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.37809922578237</v>
+        <v>0.3810011892838235</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3584117528879717</v>
+        <v>0.3568686238374766</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.4276489925153595</v>
+        <v>0.4272454295945897</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4665862661248734</v>
+        <v>0.4664700362313154</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4827716056348076</v>
+        <v>0.4824049673120961</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.3441788217096269</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.415226699921786</v>
+        <v>0.4152266999217861</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3861765697889927</v>
+        <v>0.3864145660487446</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4352144368971155</v>
+        <v>0.4355001951679321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4699093944965656</v>
+        <v>0.4771827514031091</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5389021827795913</v>
+        <v>0.5385502162357698</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06073102592448036</v>
+        <v>0.05981934630467376</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1212750571017172</v>
+        <v>0.1238809233433394</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1383047559130324</v>
+        <v>0.1397143213384062</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2313598774881247</v>
+        <v>0.230578037017571</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2197810410234585</v>
+        <v>0.2182151470481679</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2830359225872578</v>
+        <v>0.2834769016288801</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3084461586654883</v>
+        <v>0.3084889365117399</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.386500282380897</v>
+        <v>0.3877395377692645</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4992725488508987</v>
+        <v>0.5033703409874586</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5555728180905936</v>
+        <v>0.557880123200975</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5785186265181413</v>
+        <v>0.584036390961987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6190587223207386</v>
+        <v>0.6218839449229908</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1175900541770316</v>
+        <v>0.1190049019440609</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2070657153689106</v>
+        <v>0.2048086417565677</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2189254674464781</v>
+        <v>0.2230023424498374</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2932207991982365</v>
+        <v>0.2926151651365609</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2862595159740701</v>
+        <v>0.2855885359461097</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3570087595823995</v>
+        <v>0.3569009644099763</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3802852101748411</v>
+        <v>0.380660275109318</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.4405819936044758</v>
+        <v>0.4404855928960589</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.3747771816818268</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.4342883988885002</v>
+        <v>0.4342883988885003</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04948962174113554</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.282072239015057</v>
+        <v>0.2827470975606726</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2791102926249901</v>
+        <v>0.2813338361400532</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3221452303538307</v>
+        <v>0.3172695781051269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3842085132100144</v>
+        <v>0.3866524713931672</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02761586707613942</v>
+        <v>0.0289562311174725</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03837784936233007</v>
+        <v>0.04007328216019176</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06326491879984168</v>
+        <v>0.05923638528630135</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.09363260629045157</v>
+        <v>0.09340438386466343</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1359655718303733</v>
+        <v>0.1342366151311948</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.142856467793282</v>
+        <v>0.1428249092358101</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1712212195216008</v>
+        <v>0.1749471923869234</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2186360430046101</v>
+        <v>0.2193769839583053</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4185491260922051</v>
+        <v>0.4159961823051282</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4105631573713999</v>
+        <v>0.404626721909806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4348293177743658</v>
+        <v>0.427595000438636</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4768909695641718</v>
+        <v>0.4822135006438638</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07876938709303039</v>
+        <v>0.0839954924099625</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.08951470295160617</v>
+        <v>0.09320010553349339</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1332631831049453</v>
+        <v>0.1285749212047454</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1389980564201911</v>
+        <v>0.1390242299145926</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2007949193485826</v>
+        <v>0.2017236154443207</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2056506379746765</v>
+        <v>0.2072811303553832</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.242169216140124</v>
+        <v>0.2390414870609028</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2690994965478888</v>
+        <v>0.2685558051120396</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5568683724871063</v>
+        <v>0.5565381121046986</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5797613428813038</v>
+        <v>0.5779652463914157</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.5759444107287379</v>
+        <v>0.573439454879819</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5513029525160253</v>
+        <v>0.5514895018504656</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2503897932298049</v>
+        <v>0.2484804892989605</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2807506788307395</v>
+        <v>0.2822614337879117</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3102422836390898</v>
+        <v>0.3094676576424689</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3356856257961684</v>
+        <v>0.3373246075142552</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.4055804652034533</v>
+        <v>0.4044185798886609</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4313900566718109</v>
+        <v>0.4312437422799805</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4447145143967174</v>
+        <v>0.4439416219361253</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.4448538803042219</v>
+        <v>0.444265964261615</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.590402892886401</v>
+        <v>0.591015818389501</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6142046269486326</v>
+        <v>0.6134406279306226</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6096669932340287</v>
+        <v>0.6090254850386954</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.5879442276979255</v>
+        <v>0.5895430519135003</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.281104229782964</v>
+        <v>0.2801662290495667</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3125867668061417</v>
+        <v>0.3127224894696961</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3416546922301981</v>
+        <v>0.3430953251051971</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3659391402411011</v>
+        <v>0.3647115943756659</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.429426657605888</v>
+        <v>0.4282454789954624</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.456689816400249</v>
+        <v>0.4562003215927979</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4692742991935429</v>
+        <v>0.4679289715026476</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.4689459074201456</v>
+        <v>0.4693071033751439</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>259124</v>
+        <v>258368</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>260361</v>
+        <v>257651</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>236644</v>
+        <v>237043</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>170459</v>
+        <v>171681</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>164124</v>
+        <v>165623</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>163971</v>
+        <v>164979</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>152805</v>
+        <v>154766</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>131942</v>
+        <v>136774</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>437479</v>
+        <v>434507</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>436264</v>
+        <v>436080</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>402646</v>
+        <v>401758</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>324480</v>
+        <v>318075</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>302171</v>
+        <v>303048</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>301777</v>
+        <v>300560</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>277342</v>
+        <v>277165</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>234892</v>
+        <v>235646</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>205634</v>
+        <v>208375</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>204276</v>
+        <v>203730</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>193333</v>
+        <v>193986</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>183912</v>
+        <v>189607</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>496580</v>
+        <v>496573</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>494745</v>
+        <v>494102</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>456949</v>
+        <v>458289</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>402780</v>
+        <v>401321</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>475358</v>
+        <v>474309</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>441284</v>
+        <v>440392</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>342247</v>
+        <v>343125</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>269167</v>
+        <v>268226</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>192967</v>
+        <v>194145</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>190729</v>
+        <v>189580</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>205221</v>
+        <v>204747</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>195625</v>
+        <v>195102</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>682083</v>
+        <v>682710</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>645845</v>
+        <v>641899</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>560777</v>
+        <v>558628</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>480120</v>
+        <v>478301</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>526524</v>
+        <v>526362</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>491662</v>
+        <v>490393</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>390275</v>
+        <v>389056</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>322237</v>
+        <v>323861</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>243321</v>
+        <v>243508</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>236942</v>
+        <v>237769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>249722</v>
+        <v>250894</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>244039</v>
+        <v>241845</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>754579</v>
+        <v>757567</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>718860</v>
+        <v>720997</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>626808</v>
+        <v>629463</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>554224</v>
+        <v>551887</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>375835</v>
+        <v>374568</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>405030</v>
+        <v>403616</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>406909</v>
+        <v>408032</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>354535</v>
+        <v>354356</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>200328</v>
+        <v>198799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>220435</v>
+        <v>220730</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>227193</v>
+        <v>228083</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>229544</v>
+        <v>224824</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>592527</v>
+        <v>590741</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>637457</v>
+        <v>639981</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>649397</v>
+        <v>646392</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>595592</v>
+        <v>593751</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>428641</v>
+        <v>424917</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>454967</v>
+        <v>455692</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>456240</v>
+        <v>456413</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>407440</v>
+        <v>403954</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>249573</v>
+        <v>250932</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>271810</v>
+        <v>272773</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>276031</v>
+        <v>277542</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>270592</v>
+        <v>267512</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>668178</v>
+        <v>665163</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>714933</v>
+        <v>711992</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>719454</v>
+        <v>719016</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>661331</v>
+        <v>663258</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>291567</v>
+        <v>289207</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>369202</v>
+        <v>367080</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>363438</v>
+        <v>364461</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>387403</v>
+        <v>386231</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>124389</v>
+        <v>125371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>193430</v>
+        <v>192413</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>241653</v>
+        <v>242496</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>279520</v>
+        <v>278067</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>426528</v>
+        <v>426742</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>576841</v>
+        <v>576079</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>617164</v>
+        <v>619915</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>676063</v>
+        <v>677417</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>334536</v>
+        <v>335942</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>419117</v>
+        <v>419030</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>414451</v>
+        <v>415461</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>438058</v>
+        <v>442183</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>164670</v>
+        <v>168611</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>243804</v>
+        <v>243947</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>290732</v>
+        <v>291916</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>321877</v>
+        <v>322456</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>490461</v>
+        <v>492922</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>650333</v>
+        <v>650531</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>691102</v>
+        <v>691953</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>744827</v>
+        <v>748840</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>159698</v>
+        <v>158856</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>211389</v>
+        <v>209216</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>264011</v>
+        <v>264195</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>320278</v>
+        <v>321136</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>61972</v>
+        <v>60858</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>95174</v>
+        <v>94165</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>111093</v>
+        <v>112257</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>192999</v>
+        <v>194142</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>230769</v>
+        <v>230990</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>315301</v>
+        <v>312782</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>387798</v>
+        <v>385572</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>526321</v>
+        <v>524457</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>200425</v>
+        <v>197765</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>252915</v>
+        <v>251609</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>309259</v>
+        <v>309807</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>367556</v>
+        <v>366068</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>92182</v>
+        <v>92453</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>133971</v>
+        <v>133125</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>152867</v>
+        <v>153929</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>229418</v>
+        <v>231179</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>283395</v>
+        <v>282175</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>375146</v>
+        <v>374792</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>453279</v>
+        <v>453166</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>586583</v>
+        <v>586137</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>112989</v>
+        <v>113058</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>134823</v>
+        <v>134912</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>157105</v>
+        <v>159537</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>218877</v>
+        <v>218734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>20827</v>
+        <v>20514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>42814</v>
+        <v>43734</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>52246</v>
+        <v>52779</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>101448</v>
+        <v>101105</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>139675</v>
+        <v>138679</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>187601</v>
+        <v>187893</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>219642</v>
+        <v>219673</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>326454</v>
+        <v>327501</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>146079</v>
+        <v>147278</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>172109</v>
+        <v>172823</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>193416</v>
+        <v>195261</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>251433</v>
+        <v>252581</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>40326</v>
+        <v>40811</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>73100</v>
+        <v>72303</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>82702</v>
+        <v>84242</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>128574</v>
+        <v>128308</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>181923</v>
+        <v>181496</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>236631</v>
+        <v>236560</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>270798</v>
+        <v>271065</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>372134</v>
+        <v>372052</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>59202</v>
+        <v>59344</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>69736</v>
+        <v>70292</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>82791</v>
+        <v>81538</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>119181</v>
+        <v>119939</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>9221</v>
+        <v>9669</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>14928</v>
+        <v>15588</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>25317</v>
+        <v>23705</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>43287</v>
+        <v>43182</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>73937</v>
+        <v>72997</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>91261</v>
+        <v>91241</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>112521</v>
+        <v>114970</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>168899</v>
+        <v>169471</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>87846</v>
+        <v>87311</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>102580</v>
+        <v>101096</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>111750</v>
+        <v>109891</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>147931</v>
+        <v>149582</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>26302</v>
+        <v>28047</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>34819</v>
+        <v>36253</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>53328</v>
+        <v>51452</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>64260</v>
+        <v>64272</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>109190</v>
+        <v>109695</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>131376</v>
+        <v>132417</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>159146</v>
+        <v>157090</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>207882</v>
+        <v>207462</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1824603</v>
+        <v>1823521</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1986714</v>
+        <v>1980559</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1953772</v>
+        <v>1945274</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1943458</v>
+        <v>1944116</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>846116</v>
+        <v>839665</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>998445</v>
+        <v>1003818</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1097642</v>
+        <v>1094901</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1251060</v>
+        <v>1257168</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2699439</v>
+        <v>2691705</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3012449</v>
+        <v>3011427</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>3082008</v>
+        <v>3076651</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>3226119</v>
+        <v>3221856</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1934480</v>
+        <v>1936489</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2104744</v>
+        <v>2102125</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2068168</v>
+        <v>2065992</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2072626</v>
+        <v>2078262</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>949907</v>
+        <v>946737</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1111665</v>
+        <v>1112148</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1208779</v>
+        <v>1213876</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1363811</v>
+        <v>1359236</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2858153</v>
+        <v>2850291</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>3189120</v>
+        <v>3185702</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>3252214</v>
+        <v>3242891</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>3400837</v>
+        <v>3403456</v>
       </c>
     </row>
     <row r="36">
